--- a/evaluation/results/isolation_forest/augmented/shift_2/split_4/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/augmented/shift_2/split_4/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7275280898876404</v>
+        <v>0.6282771535580525</v>
       </c>
       <c r="C2">
-        <v>0.8693009118541033</v>
+        <v>0.5828295042321644</v>
       </c>
       <c r="D2">
-        <v>0.5355805243445693</v>
+        <v>0.9026217228464419</v>
       </c>
       <c r="E2">
-        <v>0.6628041714947857</v>
+        <v>0.7083027185892726</v>
       </c>
       <c r="F2">
-        <v>0.5801217038539553</v>
+        <v>0.8133648329395883</v>
       </c>
       <c r="G2">
-        <v>0.5436069888149718</v>
+        <v>0.8839669887846512</v>
       </c>
       <c r="H2">
-        <v>0.7275280898876405</v>
+        <v>0.7739044593134985</v>
       </c>
       <c r="I2">
-        <v>286</v>
+        <v>482</v>
       </c>
       <c r="J2">
-        <v>43</v>
+        <v>345</v>
       </c>
       <c r="K2">
-        <v>491</v>
+        <v>189</v>
       </c>
       <c r="L2">
-        <v>248</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.6644113667117727</v>
+        <v>0.7842323651452282</v>
       </c>
       <c r="C2">
-        <v>0.9194756554307116</v>
+        <v>0.3539325842696629</v>
       </c>
       <c r="D2">
-        <v>0.7714061272584446</v>
+        <v>0.487741935483871</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.8693009118541033</v>
+        <v>0.5828295042321644</v>
       </c>
       <c r="C3">
-        <v>0.5355805243445693</v>
+        <v>0.9026217228464419</v>
       </c>
       <c r="D3">
-        <v>0.6628041714947857</v>
+        <v>0.7083027185892726</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.7275280898876404</v>
+        <v>0.6282771535580525</v>
       </c>
       <c r="C4">
-        <v>0.7275280898876404</v>
+        <v>0.6282771535580525</v>
       </c>
       <c r="D4">
-        <v>0.7275280898876404</v>
+        <v>0.6282771535580525</v>
       </c>
       <c r="E4">
-        <v>0.7275280898876404</v>
+        <v>0.6282771535580525</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.7668561392829381</v>
+        <v>0.6835309346886963</v>
       </c>
       <c r="C5">
-        <v>0.7275280898876404</v>
+        <v>0.6282771535580525</v>
       </c>
       <c r="D5">
-        <v>0.7171051493766152</v>
+        <v>0.5980223270365718</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.7668561392829379</v>
+        <v>0.6835309346886964</v>
       </c>
       <c r="C6">
-        <v>0.7275280898876404</v>
+        <v>0.6282771535580525</v>
       </c>
       <c r="D6">
-        <v>0.7171051493766151</v>
+        <v>0.5980223270365718</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>491</v>
+        <v>189</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>248</v>
+        <v>52</v>
       </c>
       <c r="C3">
-        <v>286</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
